--- a/va_facility_data_2025-02-20/Myrtle Beach VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Myrtle%20Beach%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Myrtle Beach VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Myrtle%20Beach%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re3e4503771fb43548c72d71ae8826806"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ree147533a0ea423aae447f84034bf727"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0cc5b4a278674af6a12acd9989739182"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rab21c8760f7a49d7a952df91b93f6007"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R202f4fd109fd4220a791f48830e9df33"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb937980da9564b76b6e86f67a314acf0"/>
   </x:sheets>
 </x:workbook>
 </file>
